--- a/feature/add-search-params/ig/StructureDefinition-FrAppointmentSAS.xlsx
+++ b/feature/add-search-params/ig/StructureDefinition-FrAppointmentSAS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-23T12:06:31+00:00</t>
+    <t>2024-09-23T13:12:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
